--- a/docs/Extension-CareConnect-MedicationStatusReason-1.xlsx
+++ b/docs/Extension-CareConnect-MedicationStatusReason-1.xlsx
@@ -310,7 +310,7 @@
     <t>valueDateTime</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-MedicationStatusReason-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-MedicationStatusReason-1</t>
   </si>
 </sst>
 </file>
